--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_19-18.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_19-18.xlsx
@@ -404,10 +404,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>-3:0</t>
-  </si>
-  <si>
-    <t>11:0</t>
+    <t>-11:0</t>
+  </si>
+  <si>
+    <t>22:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -3477,7 +3477,7 @@
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3616,7 +3616,7 @@
     </row>
     <row r="104" ht="25.5" customHeight="1">
       <c r="K104" s="10">
-        <v>6611.6700000000001</v>
+        <v>6633.6700000000001</v>
       </c>
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
